--- a/data/incidentes.xlsx
+++ b/data/incidentes.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,18 +424,18 @@
     <col width="20" customWidth="1" min="1" max="1"/>
     <col width="40" customWidth="1" min="2" max="2"/>
     <col width="31" customWidth="1" min="3" max="3"/>
-    <col width="21" customWidth="1" min="4" max="4"/>
+    <col width="29" customWidth="1" min="4" max="4"/>
     <col width="12" customWidth="1" min="5" max="5"/>
-    <col width="22" customWidth="1" min="6" max="6"/>
+    <col width="53" customWidth="1" min="6" max="6"/>
     <col width="33" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="60" customWidth="1" min="9" max="9"/>
-    <col width="15" customWidth="1" min="10" max="10"/>
-    <col width="15" customWidth="1" min="11" max="11"/>
+    <col width="17" customWidth="1" min="10" max="10"/>
+    <col width="17" customWidth="1" min="11" max="11"/>
     <col width="10" customWidth="1" min="12" max="12"/>
     <col width="12" customWidth="1" min="13" max="13"/>
     <col width="17" customWidth="1" min="14" max="14"/>
-    <col width="26" customWidth="1" min="15" max="15"/>
+    <col width="38" customWidth="1" min="15" max="15"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -481,7 +481,7 @@
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>DESC_ABREV</t>
+          <t>DESCRIPCION RESUMIDA</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
@@ -518,141 +518,153 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>PETSUD-541</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Petróleos Sudamericanos</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>La Ventana</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Vaca Muerta</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Menor</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Cañería de conducción</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Crudo</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>05-02-2026</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>La rotura de la cañería se produce antes de la llegada al colector en la</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>-33.453611</v>
+      </c>
+      <c r="K2" t="n">
+        <v>-68.62388900000001</v>
+      </c>
+      <c r="L2" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M2" t="n">
+        <v>90</v>
+      </c>
+      <c r="N2" t="n">
+        <v>300</v>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Suelo, Vegetacion</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>ACO-CH-28</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>Aconcagua Energía S.A.</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>Chañares Herrados</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Chañares Herrados</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>Menor</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Pozo Productor</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Detalle del incidente</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>08-09-2025</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>Se produce falla de material en cañería de conducción soterrada, de
 ERFV, sobre camino secundario</t>
         </is>
       </c>
-      <c r="J2" t="n">
+      <c r="J3" t="n">
         <v>-33.3465</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K3" t="n">
         <v>-68.9873</v>
       </c>
-      <c r="L2" t="n">
+      <c r="L3" t="n">
         <v>1.5</v>
       </c>
-      <c r="M2" t="n">
+      <c r="M3" t="n">
         <v>48</v>
       </c>
-      <c r="N2" t="n">
+      <c r="N3" t="n">
         <v>50</v>
-      </c>
-      <c r="O2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>PP-06/26</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Pluspetrol S.A.</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>JCP</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>JCP</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>BAJA</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Incendio / explosión</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>10-02-2026</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="n">
-        <v>-37.4246588</v>
-      </c>
-      <c r="K3" t="n">
-        <v>-68.40491419999999</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="M3" t="n">
-        <v>97</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0.5</v>
       </c>
       <c r="O3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>YPF-0000246524</t>
+          <t>PETSUD-468</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>YPF S.A.</t>
+          <t>Petróleos Sudamericanos</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CHIHUIDO DE LA SIERRA NEGRA</t>
+          <t>Vizcacheras</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>DESFILADERO BAYO</t>
+          <t>Vizcacheras</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -662,101 +674,1472 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>CAÑERIA CONDUCCIÓN</t>
+          <t>Línea impulsión Bba N°1</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>DERRAME DE AGUA DE PRODUCCIÓN</t>
+          <t>Crudo</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>10-10-2025</t>
+          <t>10-01-2026</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Se observa perdida en linea conducción pozo sumidero DB.X-3</t>
+          <t>Se produce rotura en línea de impulsión de bomba despacho</t>
         </is>
       </c>
       <c r="J4" t="n">
-        <v>-37.348933</v>
+        <v>-33.587511</v>
       </c>
       <c r="K4" t="n">
-        <v>-69.0534</v>
+        <v>-68.389331</v>
       </c>
       <c r="L4" t="n">
-        <v>8.5</v>
+        <v>0.5</v>
       </c>
       <c r="M4" t="n">
-        <v>99.8</v>
+        <v>98</v>
       </c>
       <c r="N4" t="n">
-        <v>1250</v>
+        <v>100</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>Suelo, Cauce aluvional</t>
+          <t>Suelo</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>PCR-MDZ-21-2025-</t>
+          <t>PP-06/26</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Petroquímica Comodoro Rivadavia S.A.</t>
+          <t>Pluspetrol S.A.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>El Sosneado</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
+          <t>JCP</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>JCP</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Menor</t>
+          <t>BAJA</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
+          <t>Incendio / explosión</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>10-02-2026</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>-37.4246588</v>
+      </c>
+      <c r="K5" t="n">
+        <v>-68.40491419999999</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="M5" t="n">
+        <v>97</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>YPF-0000246524</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>YPF S.A.</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>CHIHUIDO DE LA SIERRA NEGRA</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>DESFILADERO BAYO</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Menor</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>CAÑERIA CONDUCCIÓN</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>DERRAME DE AGUA DE PRODUCCIÓN</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>10-10-2025</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Se observa perdida en linea conducción pozo sumidero DB.X-3</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>-37.348933</v>
+      </c>
+      <c r="K6" t="n">
+        <v>-69.0534</v>
+      </c>
+      <c r="L6" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="M6" t="n">
+        <v>99.8</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1250</v>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Suelo, Cauce aluvional</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>PETSUD-562</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Petróleos Sudamericanos</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>La Ventana</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Punta de las Bardas</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Menor</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>cañería inyeccion PB-191</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Crudo</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>12-02-2026</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>La perdida se produce en Cañería</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>-33.516006</v>
+      </c>
+      <c r="K7" t="n">
+        <v>-68.65689399999999</v>
+      </c>
+      <c r="L7" t="n">
+        <v>7</v>
+      </c>
+      <c r="M7" t="n">
+        <v>100</v>
+      </c>
+      <c r="N7" t="n">
+        <v>200</v>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Suelo</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>PETSUD-567</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Petróleos Sudamericanos</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>La Ventana</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>La Ventana</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Menor</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>cañería  LV-20  b/p</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Crudo</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>16-02-2026</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>La rotura se produce por hundimiento de</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>-33.335556</v>
+      </c>
+      <c r="K8" t="n">
+        <v>-68.688333</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="M8" t="n">
+        <v>97</v>
+      </c>
+      <c r="N8" t="n">
+        <v>50</v>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>Suelo</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>PETSUD-568</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Petróleos Sudamericanos</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>La Ventana</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Vaca Muerta</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Menor</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Cañería de conduccion VM-64</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Crudo</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>16-02-2026</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>La rotura se produce en de cañería de</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>-33.475278</v>
+      </c>
+      <c r="K9" t="n">
+        <v>-68.623333</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="M9" t="n">
+        <v>97</v>
+      </c>
+      <c r="N9" t="n">
+        <v>30</v>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>Suelo, Vegetacion</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>PP-08/26</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Pluspetrol S.A.</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>JCP</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>JCP</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>BAJA</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Incendio / explosión</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>17-02-2026</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>-37.399075274</v>
+      </c>
+      <c r="K10" t="n">
+        <v>-68.45013693600001</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="M10" t="n">
+        <v>95</v>
+      </c>
+      <c r="N10" t="n">
+        <v>20</v>
+      </c>
+      <c r="O10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>PETSUD-569</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Petróleos Sudamericanos</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Barrancas</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Barrancas</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Menor</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Niple de entre caño de puente de producción B 542</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Crudo</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>17-02-2026</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Se produce pinchadura niple de entre caño de puente de producción B</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>-33.190397</v>
+      </c>
+      <c r="K11" t="n">
+        <v>-68.749178</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="M11" t="n">
+        <v>80</v>
+      </c>
+      <c r="N11" t="n">
+        <v>6</v>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>Suelo</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>PETSUD-570</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Petróleos Sudamericanos</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Barrancas</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Barrancas</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Menor</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Línea de admisión de bombas de despacho</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Crudo</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>17-02-2026</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Se produce pinchadura aérea en línea de 8" de admisión de bombas de</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
+        <v>-33.130158</v>
+      </c>
+      <c r="K12" t="n">
+        <v>-68.7861</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M12" t="n">
+        <v>95</v>
+      </c>
+      <c r="N12" t="n">
+        <v>50</v>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>Suelo</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>PETSUD-571</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Petróleos Sudamericanos</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>La Ventana</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Río Tunuyán</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Menor</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Cañería control colector N°1</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Crudo</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>17-02-2026</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>La rotura se produce en de cañería de</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v>-33.288256</v>
+      </c>
+      <c r="K13" t="n">
+        <v>-68.70415800000001</v>
+      </c>
+      <c r="L13" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M13" t="n">
+        <v>97</v>
+      </c>
+      <c r="N13" t="n">
+        <v>150</v>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>Suelo</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>PETSUD-572</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Petróleos Sudamericanos</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Vizcacheras</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Vizcacheras</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Menor</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Pozo productor Bat-4</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Crudo</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>17-02-2026</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Rotura linea de conduccion de pozo VI-232</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
+        <v>-33.577675</v>
+      </c>
+      <c r="K14" t="n">
+        <v>-68.403486</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="M14" t="n">
+        <v>87.7</v>
+      </c>
+      <c r="N14" t="n">
+        <v>190</v>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>Suelo, Vegetacion</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>YPF-0000251489</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>YPF S.A.</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>PASO DE LAS BARDAS NORTE</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>PASO DE LAS BARDAS NORTE</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Menor</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>BATERIA</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>DERRAME DE CRUDO</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>17-02-2026</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Se observa perdida en línea de ingreso a tanque general, debido a</t>
+        </is>
+      </c>
+      <c r="J15" t="n">
+        <v>-37.13812</v>
+      </c>
+      <c r="K15" t="n">
+        <v>-69.474234</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="M15" t="n">
+        <v>90</v>
+      </c>
+      <c r="N15" t="n">
+        <v>3</v>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>Suelo</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>PCR-MDZ-21-2025-</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Petroquímica Comodoro Rivadavia S.A.</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>El Sosneado</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Menor</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr">
+        <is>
           <t>Incendio y/o explosiones</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>18-02-2026</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>derramados, riesgos inminentes a cauces de agua, poblaciones cercanas, daño al suelo, flora, fauna, 
 etc.: 
 Siendo las...</t>
         </is>
       </c>
-      <c r="J5" t="n">
+      <c r="J16" t="n">
         <v>-34.964306</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K16" t="n">
         <v>-69.53319999999999</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L16" t="n">
         <v>1.1</v>
       </c>
-      <c r="M5" t="n">
+      <c r="M16" t="n">
         <v>40</v>
       </c>
-      <c r="N5" t="n">
+      <c r="N16" t="n">
         <v>11</v>
       </c>
-      <c r="O5" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>PETSUD-573</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Petróleos Sudamericanos</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Barrancas</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Estructura Cruz de Piedra</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Menor</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Línea de control de colector ECP-71</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Crudo</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>18-02-2026</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Se produce pinchadura aérea en línea de control del</t>
+        </is>
+      </c>
+      <c r="J17" t="n">
+        <v>-33.065</v>
+      </c>
+      <c r="K17" t="n">
+        <v>-68.798333</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="M17" t="n">
+        <v>75</v>
+      </c>
+      <c r="N17" t="n">
+        <v>7</v>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>Suelo</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>PETSUD-574</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Petróleos Sudamericanos</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Barrancas</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Barrancas</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Menor</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Cañería troncal  Sat 15</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Agua de producción</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>18-02-2026</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Se produce rotura soterrada de linea troncal</t>
+        </is>
+      </c>
+      <c r="J18" t="n">
+        <v>-33.19</v>
+      </c>
+      <c r="K18" t="n">
+        <v>-68.780833</v>
+      </c>
+      <c r="L18" t="n">
+        <v>4</v>
+      </c>
+      <c r="M18" t="n">
+        <v>100</v>
+      </c>
+      <c r="N18" t="n">
+        <v>300</v>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>Suelo</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>PETSUD-575</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Petróleos Sudamericanos</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>La Ventana</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Punta de las Bardas</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Menor</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Cuerpo del colector 2a</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Crudo</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>18-02-2026</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Rotura del cuerpo de producción general,</t>
+        </is>
+      </c>
+      <c r="J19" t="n">
+        <v>-33.476944</v>
+      </c>
+      <c r="K19" t="n">
+        <v>-68.684444</v>
+      </c>
+      <c r="L19" t="n">
+        <v>4</v>
+      </c>
+      <c r="M19" t="n">
+        <v>90</v>
+      </c>
+      <c r="N19" t="n">
+        <v>200</v>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>Suelo, Cauce aluvional, Vegetacion</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>PETSUD-576</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Petróleos Sudamericanos</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>La Ventana</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>La Ventana</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Menor</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Cañería de conducción</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Crudo</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>19-02-2026</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Se produce la rotura de la cañería de cañería</t>
+        </is>
+      </c>
+      <c r="J20" t="n">
+        <v>-33.469167</v>
+      </c>
+      <c r="K20" t="n">
+        <v>-68.62222199999999</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M20" t="n">
+        <v>90</v>
+      </c>
+      <c r="N20" t="n">
+        <v>10</v>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>Suelo, Vegetacion</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>PETSUD-577</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Petróleos Sudamericanos</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>La Ventana</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Punta de las Bardas</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Menor</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Puente de producción</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Crudo</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>19-02-2026</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Rotura de un niple de boca de pozo, afecta la</t>
+        </is>
+      </c>
+      <c r="J21" t="n">
+        <v>-33.544167</v>
+      </c>
+      <c r="K21" t="n">
+        <v>-68.6675</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="M21" t="n">
+        <v>90</v>
+      </c>
+      <c r="N21" t="n">
+        <v>15</v>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>Suelo</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>PETSUD-578</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Petróleos Sudamericanos</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>La Ventana</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Punta de las Bardas</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Menor</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Colector 8</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Crudo</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>19-02-2026</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Rotura de cañería de control, afecta la zona</t>
+        </is>
+      </c>
+      <c r="J22" t="n">
+        <v>-33.461111</v>
+      </c>
+      <c r="K22" t="n">
+        <v>-68.63722199999999</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="n">
+        <v>90</v>
+      </c>
+      <c r="N22" t="n">
+        <v>150</v>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>Suelo</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>YPF-0000251563</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>YPF S.A.</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>CHIHUIDO DE LA SIERRA NEGRA</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>PUESTO MOLINA</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Menor</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>CAÑERIA CONDUCCIÓN</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>DERRAME DE CRUDO</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>19-02-2026</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Se observa perdida de liquido en locación pmo-126, la cañeria pertenece</t>
+        </is>
+      </c>
+      <c r="J23" t="n">
+        <v>-37.198</v>
+      </c>
+      <c r="K23" t="n">
+        <v>-69.122833</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="M23" t="n">
+        <v>98</v>
+      </c>
+      <c r="N23" t="n">
+        <v>25</v>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>Suelo, Instalaciones propias</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>PP-09/26</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Pluspetrol S.A.</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>JCP</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>JCP</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>BAJA</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Incendio / explosión</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>20-02-2026</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>-37.466149</v>
+      </c>
+      <c r="K24" t="n">
+        <v>-68.258762</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="M24" t="n">
+        <v>100</v>
+      </c>
+      <c r="N24" t="n">
+        <v>20</v>
+      </c>
+      <c r="O24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>PETSUD-579</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Petróleos Sudamericanos</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>La Ventana</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Vaca Muerta</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Menor</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Vinculación cañería pozos VM-10 y VM-244</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Crudo</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>20-02-2026</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Rotura de cañería de vinculación de los pozos VM-</t>
+        </is>
+      </c>
+      <c r="J25" t="n">
+        <v>-32.486667</v>
+      </c>
+      <c r="K25" t="n">
+        <v>-68.606667</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="M25" t="n">
+        <v>90</v>
+      </c>
+      <c r="N25" t="n">
+        <v>50</v>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>Suelo</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>PETSUD-580</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Petróleos Sudamericanos</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>La Ventana</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Vaca Muerta</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Menor</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Línea de control Colector 2</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Crudo</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>20-02-2026</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Rotura en línea de control colector 2A Bat</t>
+        </is>
+      </c>
+      <c r="J26" t="n">
+        <v>-33.484444</v>
+      </c>
+      <c r="K26" t="n">
+        <v>-68.605278</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="M26" t="n">
+        <v>90</v>
+      </c>
+      <c r="N26" t="n">
+        <v>40</v>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>Suelo</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
